--- a/DaySale_2025-05-19_11-09.xlsx
+++ b/DaySale_2025-05-19_11-09.xlsx
@@ -44,7 +44,7 @@
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t>-4:0</t>
   </si>
   <si>
     <t>1</t>
@@ -53,7 +53,7 @@
     <t>210.00</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>Monday, 19 May, 2025 11:09 AM</t>
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45796.464841838912</v>
+        <v>45796.465090217825</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -622,7 +622,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45796.464841838912</v>
+        <v>45796.465090217825</v>
       </c>
       <c r="K4" s="4"/>
     </row>
